--- a/src/main/resources/iTower_Clients_Excel/excel_Tawal/TestDataSheetForTroubleTicket.xlsx
+++ b/src/main/resources/iTower_Clients_Excel/excel_Tawal/TestDataSheetForTroubleTicket.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saurabh.ingulkar\eclipse-workspace\Tawal_Client_Automation_Project\src\main\resources\iTower_Clients_Excel\excel_Tawal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rachana.chaurasiya\Desktop\Tawal\Tawal_Client_Automation_Project\src\main\resources\iTower_Clients_Excel\excel_Tawal\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13630" windowHeight="3710" tabRatio="500" firstSheet="7" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13630" windowHeight="3710" tabRatio="500" firstSheet="17" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="testLogin" sheetId="24" r:id="rId1"/>
@@ -31,6 +31,7 @@
     <sheet name="verifyAlarmDescriptionValue" sheetId="28" r:id="rId17"/>
     <sheet name="RMSDataOnAlarmNameColumn" sheetId="29" r:id="rId18"/>
     <sheet name="verifyDataInSLAReport" sheetId="30" r:id="rId19"/>
+    <sheet name="addChildTicket" sheetId="34" r:id="rId20"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="114">
   <si>
     <t>username</t>
   </si>
@@ -378,6 +379,12 @@
   </si>
   <si>
     <t>Tawal</t>
+  </si>
+  <si>
+    <t>numberOFMonth</t>
+  </si>
+  <si>
+    <t>Assign</t>
   </si>
 </sst>
 </file>
@@ -445,7 +452,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyProtection="1"/>
@@ -455,6 +462,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -695,7 +703,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
@@ -1248,6 +1256,37 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
